--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H2">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I2">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J2">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N2">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q2">
-        <v>0.9833406529326526</v>
+        <v>7.935484727916109</v>
       </c>
       <c r="R2">
-        <v>0.9833406529326526</v>
+        <v>71.41936255124499</v>
       </c>
       <c r="S2">
-        <v>0.03566952453585822</v>
+        <v>0.111131287691676</v>
       </c>
       <c r="T2">
-        <v>0.03566952453585822</v>
+        <v>0.111131287691676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H3">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I3">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J3">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N3">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q3">
-        <v>4.774860949678587</v>
+        <v>27.40487689080878</v>
       </c>
       <c r="R3">
-        <v>4.774860949678587</v>
+        <v>246.643892017279</v>
       </c>
       <c r="S3">
-        <v>0.1732024596887447</v>
+        <v>0.383787426014895</v>
       </c>
       <c r="T3">
-        <v>0.1732024596887447</v>
+        <v>0.383787426014895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H4">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I4">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J4">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N4">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q4">
-        <v>1.617336174355344</v>
+        <v>9.34128860176811</v>
       </c>
       <c r="R4">
-        <v>1.617336174355344</v>
+        <v>84.07159741591299</v>
       </c>
       <c r="S4">
-        <v>0.05866696569683069</v>
+        <v>0.1308186540088871</v>
       </c>
       <c r="T4">
-        <v>0.05866696569683069</v>
+        <v>0.1308186540088871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H5">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I5">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J5">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N5">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q5">
-        <v>1.656021273433387</v>
+        <v>3.112177657600556</v>
       </c>
       <c r="R5">
-        <v>1.656021273433387</v>
+        <v>28.009598918405</v>
       </c>
       <c r="S5">
-        <v>0.06007022212340178</v>
+        <v>0.04358401817569094</v>
       </c>
       <c r="T5">
-        <v>0.06007022212340178</v>
+        <v>0.04358401817569093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H6">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I6">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J6">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N6">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q6">
-        <v>8.041233001780148</v>
+        <v>10.74778019152789</v>
       </c>
       <c r="R6">
-        <v>8.041233001780148</v>
+        <v>96.73002172375101</v>
       </c>
       <c r="S6">
-        <v>0.2916862605040638</v>
+        <v>0.1505156513388238</v>
       </c>
       <c r="T6">
-        <v>0.2916862605040638</v>
+        <v>0.1505156513388238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H7">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I7">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J7">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N7">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q7">
-        <v>2.723718482540206</v>
+        <v>3.663512775388556</v>
       </c>
       <c r="R7">
-        <v>2.723718482540206</v>
+        <v>32.971614978497</v>
       </c>
       <c r="S7">
-        <v>0.09879968142473644</v>
+        <v>0.05130510689178153</v>
       </c>
       <c r="T7">
-        <v>0.09879968142473644</v>
+        <v>0.05130510689178153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H8">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I8">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J8">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N8">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q8">
-        <v>1.036142717804179</v>
+        <v>1.634151323145556</v>
       </c>
       <c r="R8">
-        <v>1.036142717804179</v>
+        <v>14.70736190831</v>
       </c>
       <c r="S8">
-        <v>0.03758485727722499</v>
+        <v>0.02288522340486087</v>
       </c>
       <c r="T8">
-        <v>0.03758485727722499</v>
+        <v>0.02288522340486086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H9">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I9">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J9">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N9">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q9">
-        <v>5.031254821797606</v>
+        <v>5.64347577586689</v>
       </c>
       <c r="R9">
-        <v>5.031254821797606</v>
+        <v>50.791281982802</v>
       </c>
       <c r="S9">
-        <v>0.1825028455571802</v>
+        <v>0.07903319728189613</v>
       </c>
       <c r="T9">
-        <v>0.1825028455571802</v>
+        <v>0.07903319728189612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H10">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I10">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J10">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N10">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q10">
-        <v>1.704181652921383</v>
+        <v>1.923647975121556</v>
       </c>
       <c r="R10">
-        <v>1.704181652921383</v>
+        <v>17.312831776094</v>
       </c>
       <c r="S10">
-        <v>0.06181718319195934</v>
+        <v>0.0269394351914886</v>
       </c>
       <c r="T10">
-        <v>0.06181718319195934</v>
+        <v>0.0269394351914886</v>
       </c>
     </row>
   </sheetData>
